--- a/figures-bharath/ResultsReport.xlsx
+++ b/figures-bharath/ResultsReport.xlsx
@@ -9,10 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="36">
   <si>
     <t>Camera dataset</t>
   </si>
@@ -39,9 +36,6 @@
     <t>MAUT-paper</t>
   </si>
   <si>
-    <t>MAUT-additive</t>
-  </si>
-  <si>
     <t>PC dataset</t>
   </si>
   <si>
@@ -52,6 +46,87 @@
   </si>
   <si>
     <t>DIV</t>
+  </si>
+  <si>
+    <t>DIV-sec 3.2</t>
+  </si>
+  <si>
+    <t>MAUT</t>
+  </si>
+  <si>
+    <t>and DIV2-3.5</t>
+  </si>
+  <si>
+    <t>DIV2</t>
+  </si>
+  <si>
+    <t>ADDPREF</t>
+  </si>
+  <si>
+    <t>ADDPREF2</t>
+  </si>
+  <si>
+    <t>//for addpref, we have tried other weight combination. arith prog --&gt; 6.31 cycles</t>
+  </si>
+  <si>
+    <t>include the above statement in report</t>
+  </si>
+  <si>
+    <t>SELNOMINAL</t>
+  </si>
+  <si>
+    <t>SELWEIGHT</t>
+  </si>
+  <si>
+    <t>HIST</t>
+  </si>
+  <si>
+    <t>SIM</t>
+  </si>
+  <si>
+    <t>ADD</t>
+  </si>
+  <si>
+    <t>selweight for camera dataset - 100% verified as correct</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>numCycles</t>
+  </si>
+  <si>
+    <t>SELNOM+SELWT</t>
+  </si>
+  <si>
+    <t>SIM+ADDPREF</t>
+  </si>
+  <si>
+    <t>//HIST - average Product Enabled</t>
+  </si>
+  <si>
+    <t>NOISY FRAMEWORK</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>addpref is immediate critique string</t>
+  </si>
+  <si>
+    <t>addpref2 is history of critique strings.</t>
+  </si>
+  <si>
+    <t>//conclusion. in a noisy setting they give a higher performance improvement</t>
+  </si>
+  <si>
+    <t>INIT</t>
   </si>
 </sst>
 </file>
@@ -121,7 +196,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -133,8 +208,188 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -148,18 +403,203 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="191">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -197,7 +637,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MAUT-paper</c:v>
+                  <c:v>MAUT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -209,13 +649,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>q1</c:v>
+                  <c:v>Q1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>q3</c:v>
+                  <c:v>Q3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>q5</c:v>
+                  <c:v>Q5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -227,13 +667,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>9.210000000000001</c:v>
+                  <c:v>6.95</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.08</c:v>
+                  <c:v>3.23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.01</c:v>
+                  <c:v>1.71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -248,7 +688,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MAUT-additive</c:v>
+                  <c:v>SIM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -260,13 +700,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>q1</c:v>
+                  <c:v>Q1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>q3</c:v>
+                  <c:v>Q3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>q5</c:v>
+                  <c:v>Q5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -278,13 +718,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8.720000000000001</c:v>
+                  <c:v>5.12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.68</c:v>
+                  <c:v>2.24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.88</c:v>
+                  <c:v>1.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIM+ADDPREF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -299,11 +790,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="5155368"/>
-        <c:axId val="5157784"/>
+        <c:axId val="589036744"/>
+        <c:axId val="589043320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="5155368"/>
+        <c:axId val="589036744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -331,7 +822,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="5157784"/>
+        <c:crossAx val="589043320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -339,7 +830,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="5157784"/>
+        <c:axId val="589043320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -368,7 +859,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="5155368"/>
+        <c:crossAx val="589036744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -377,11 +868,51 @@
       <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:prstDash val="solid"/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="3000">
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
@@ -397,13 +928,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>101599</xdr:rowOff>
+      <xdr:rowOff>88899</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -423,61 +954,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="results2"/>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="10">
-          <cell r="T10" t="str">
-            <v>q1</v>
-          </cell>
-          <cell r="U10" t="str">
-            <v>q3</v>
-          </cell>
-          <cell r="V10" t="str">
-            <v>q5</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="S11" t="str">
-            <v>MAUT-paper</v>
-          </cell>
-          <cell r="T11">
-            <v>9.2100000000000009</v>
-          </cell>
-          <cell r="U11">
-            <v>4.08</v>
-          </cell>
-          <cell r="V11">
-            <v>2.0099999999999998</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="S12" t="str">
-            <v>MAUT-additive</v>
-          </cell>
-          <cell r="T12">
-            <v>8.7200000000000006</v>
-          </cell>
-          <cell r="U12">
-            <v>3.68</v>
-          </cell>
-          <cell r="V12">
-            <v>1.88</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -802,105 +1278,1715 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:AN72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="R33" workbookViewId="0">
+      <selection activeCell="AH66" sqref="AH66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24" customWidth="1"/>
+    <col min="26" max="26" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3">
+        <v>6.95</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3.23</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1.71</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4">
+        <v>5.12</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.52</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4.34</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.71</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="6">
+        <v>6.11</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2.91</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3">
-        <v>9.2100000000000009</v>
-      </c>
-      <c r="C2" s="3">
-        <v>4.08</v>
-      </c>
-      <c r="D2" s="3">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4">
-        <v>8.7200000000000006</v>
-      </c>
-      <c r="C3" s="4">
-        <v>3.68</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1.88</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3">
-        <v>9.2100000000000009</v>
-      </c>
-      <c r="C7" s="3">
-        <v>4.08</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4.08</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C9" s="4">
+        <v>3.68</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40">
+      <c r="A36" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" t="s">
+        <v>18</v>
+      </c>
+      <c r="P36" t="s">
+        <v>19</v>
+      </c>
+      <c r="U36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM36" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN36" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40" ht="30">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM37" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN37" s="6">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40">
+      <c r="A38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="3">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="C38" s="3">
+        <v>4.08</v>
+      </c>
+      <c r="D38" s="3">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="3">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="H38" s="3">
+        <v>4.08</v>
+      </c>
+      <c r="I38" s="3">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L38" s="3">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="M38" s="3">
+        <v>4.08</v>
+      </c>
+      <c r="N38" s="3">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="R38" s="3">
+        <v>4.08</v>
+      </c>
+      <c r="S38" s="3">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V38" s="3">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="W38" s="3">
+        <v>4.08</v>
+      </c>
+      <c r="X38" s="3">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="Z38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA38" s="3">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="AB38" s="3">
+        <v>4.08</v>
+      </c>
+      <c r="AC38" s="3">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="AF38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG38" s="3">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="AH38" s="3">
+        <v>4.08</v>
+      </c>
+      <c r="AI38" s="3">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="AM38" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AN38" s="6">
+        <v>9.15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40">
+      <c r="A39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="4">
+        <v>7.82</v>
+      </c>
+      <c r="C39" s="4">
+        <v>3.12</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1.42</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="7">
+        <v>6.42</v>
+      </c>
+      <c r="H39" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="I39" s="4">
+        <v>1.37</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39" s="6">
+        <v>7.65</v>
+      </c>
+      <c r="M39" s="6">
+        <v>3.62</v>
+      </c>
+      <c r="N39" s="6">
+        <v>1.68</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q39" s="6">
+        <v>8.51</v>
+      </c>
+      <c r="R39" s="6">
+        <v>3.51</v>
+      </c>
+      <c r="S39" s="6">
+        <v>1.82</v>
+      </c>
+      <c r="U39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V39" s="4">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="W39" s="4">
         <v>3.68</v>
       </c>
-      <c r="D8" s="4">
+      <c r="X39" s="4">
         <v>1.88</v>
+      </c>
+      <c r="Z39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA39" s="7">
+        <v>6.43</v>
+      </c>
+      <c r="AB39" s="4">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="AC39" s="4">
+        <v>1.42</v>
+      </c>
+      <c r="AF39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG39" s="4">
+        <v>8.81</v>
+      </c>
+      <c r="AH39" s="4">
+        <v>3.71</v>
+      </c>
+      <c r="AI39" s="4">
+        <v>1.91</v>
+      </c>
+      <c r="AM39" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="AN39" s="6"/>
+    </row>
+    <row r="40" spans="1:40">
+      <c r="A40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="6">
+        <v>6.82</v>
+      </c>
+      <c r="C40" s="6">
+        <v>3.01</v>
+      </c>
+      <c r="D40" s="6">
+        <v>1.38</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="6">
+        <v>5.92</v>
+      </c>
+      <c r="H40" s="6">
+        <v>2.72</v>
+      </c>
+      <c r="I40" s="6">
+        <v>1.36</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L40" s="7">
+        <v>7.08</v>
+      </c>
+      <c r="M40" s="4">
+        <v>3.32</v>
+      </c>
+      <c r="N40" s="4">
+        <v>1.51</v>
+      </c>
+      <c r="Z40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA40" s="7">
+        <v>5.62</v>
+      </c>
+      <c r="AB40" s="4">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="AC40" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="AM40" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="AN40" s="6"/>
+    </row>
+    <row r="41" spans="1:40">
+      <c r="B41">
+        <f>((B38-B39)/B38)*100</f>
+        <v>15.092290988056464</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ref="C41:D41" si="0">((C38-C39)/C38)*100</f>
+        <v>23.52941176470588</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>29.353233830845767</v>
+      </c>
+      <c r="E41">
+        <f>AVERAGE(B41:D41)</f>
+        <v>22.658312194536038</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41">
+        <f>((G38-G40)/G38)*100</f>
+        <v>35.72204125950055</v>
+      </c>
+      <c r="H41">
+        <f t="shared" ref="H41:I41" si="1">((H38-H40)/H38)*100</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>32.338308457711427</v>
+      </c>
+      <c r="J41">
+        <f>AVERAGE(G41:I41)</f>
+        <v>33.797894350181771</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L41" s="6">
+        <v>6.78</v>
+      </c>
+      <c r="M41" s="6">
+        <v>3.22</v>
+      </c>
+      <c r="N41" s="6">
+        <v>1.42</v>
+      </c>
+      <c r="AA41">
+        <f>((AA38-AA40)/AA38)*100</f>
+        <v>38.979370249728561</v>
+      </c>
+      <c r="AB41">
+        <f t="shared" ref="AB41:AC41" si="2">((AB38-AB40)/AB38)*100</f>
+        <v>44.117647058823536</v>
+      </c>
+      <c r="AC41">
+        <f t="shared" si="2"/>
+        <v>37.810945273631837</v>
+      </c>
+      <c r="AD41">
+        <f>AVERAGE(AA41:AC41)</f>
+        <v>40.302654194061311</v>
+      </c>
+      <c r="AM41" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="AN41" s="6"/>
+    </row>
+    <row r="42" spans="1:40">
+      <c r="A42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM42" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="AN42" s="6"/>
+    </row>
+    <row r="43" spans="1:40">
+      <c r="A43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="3">
+        <v>6.62</v>
+      </c>
+      <c r="C43" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1.73</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM43" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="AN43" s="6"/>
+    </row>
+    <row r="44" spans="1:40">
+      <c r="A44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="4">
+        <v>5.92</v>
+      </c>
+      <c r="C44" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1.62</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="3">
+        <v>6.62</v>
+      </c>
+      <c r="H44" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1.73</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L44" s="3">
+        <v>6.62</v>
+      </c>
+      <c r="M44" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="N44" s="3">
+        <v>1.73</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>6.62</v>
+      </c>
+      <c r="R44" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="S44" s="3">
+        <v>1.73</v>
+      </c>
+      <c r="U44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V44" s="3">
+        <v>6.62</v>
+      </c>
+      <c r="W44" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="X44" s="3">
+        <v>1.73</v>
+      </c>
+      <c r="Z44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>6.62</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>1.73</v>
+      </c>
+      <c r="AF44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG44" s="3">
+        <v>6.62</v>
+      </c>
+      <c r="AH44" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="AI44" s="3">
+        <v>1.73</v>
+      </c>
+      <c r="AM44" s="5">
+        <f>AM43+0.1</f>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="AN44" s="6"/>
+    </row>
+    <row r="45" spans="1:40">
+      <c r="A45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="6">
+        <v>5.83</v>
+      </c>
+      <c r="C45" s="6">
+        <v>2.81</v>
+      </c>
+      <c r="D45" s="6">
+        <v>1.51</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="4">
+        <v>5.81</v>
+      </c>
+      <c r="H45" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="I45" s="4">
+        <v>1.62</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L45" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="M45" s="4">
+        <v>2.92</v>
+      </c>
+      <c r="N45" s="4">
+        <v>1.42</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>6.41</v>
+      </c>
+      <c r="R45" s="4">
+        <v>2.96</v>
+      </c>
+      <c r="S45" s="4">
+        <v>1.66</v>
+      </c>
+      <c r="U45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V45" s="4">
+        <v>6.02</v>
+      </c>
+      <c r="W45" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="X45" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="Z45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA45" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AB45" s="4">
+        <v>2</v>
+      </c>
+      <c r="AC45" s="4">
+        <v>1.32</v>
+      </c>
+      <c r="AF45" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG45" s="4">
+        <v>6.12</v>
+      </c>
+      <c r="AH45" s="4">
+        <v>2.91</v>
+      </c>
+      <c r="AI45" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="AM45" s="5">
+        <f t="shared" ref="AM45:AM57" si="3">AM44+0.1</f>
+        <v>1.8000000000000003</v>
+      </c>
+      <c r="AN45" s="6"/>
+    </row>
+    <row r="46" spans="1:40">
+      <c r="F46" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="6">
+        <v>5.62</v>
+      </c>
+      <c r="H46" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="I46" s="6">
+        <v>1.61</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L46" s="6">
+        <v>6.42</v>
+      </c>
+      <c r="M46" s="6">
+        <v>3</v>
+      </c>
+      <c r="N46" s="6">
+        <v>1.51</v>
+      </c>
+      <c r="Z46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA46" s="4">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="AB46" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="AC46" s="4">
+        <v>1.31</v>
+      </c>
+      <c r="AM46" s="5">
+        <f t="shared" si="3"/>
+        <v>1.9000000000000004</v>
+      </c>
+      <c r="AN46" s="6"/>
+    </row>
+    <row r="47" spans="1:40">
+      <c r="F47" s="5"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="K47" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L47" s="6">
+        <v>6.08</v>
+      </c>
+      <c r="M47" s="6">
+        <v>2.88</v>
+      </c>
+      <c r="N47" s="6">
+        <v>1.31</v>
+      </c>
+      <c r="AM47" s="5">
+        <f t="shared" si="3"/>
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="AN47" s="6">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:40">
+      <c r="AM48" s="5">
+        <f t="shared" si="3"/>
+        <v>2.1000000000000005</v>
+      </c>
+      <c r="AN48" s="6"/>
+    </row>
+    <row r="49" spans="1:40">
+      <c r="F49" t="s">
+        <v>15</v>
+      </c>
+      <c r="K49" t="s">
+        <v>22</v>
+      </c>
+      <c r="P49" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM49" s="5">
+        <f t="shared" si="3"/>
+        <v>2.2000000000000006</v>
+      </c>
+      <c r="AN49" s="6"/>
+    </row>
+    <row r="50" spans="1:40">
+      <c r="F50" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM50" s="5">
+        <f t="shared" si="3"/>
+        <v>2.3000000000000007</v>
+      </c>
+      <c r="AN50" s="6"/>
+    </row>
+    <row r="51" spans="1:40">
+      <c r="F51" t="s">
+        <v>32</v>
+      </c>
+      <c r="H51" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM51" s="5">
+        <f t="shared" si="3"/>
+        <v>2.4000000000000008</v>
+      </c>
+      <c r="AN51" s="6"/>
+    </row>
+    <row r="52" spans="1:40">
+      <c r="AM52" s="5">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000009</v>
+      </c>
+      <c r="AN52" s="6"/>
+    </row>
+    <row r="53" spans="1:40">
+      <c r="AM53" s="5">
+        <f t="shared" si="3"/>
+        <v>2.600000000000001</v>
+      </c>
+      <c r="AN53" s="6"/>
+    </row>
+    <row r="54" spans="1:40">
+      <c r="AM54" s="5">
+        <f t="shared" si="3"/>
+        <v>2.7000000000000011</v>
+      </c>
+      <c r="AN54" s="6"/>
+    </row>
+    <row r="55" spans="1:40">
+      <c r="AM55" s="5">
+        <f t="shared" si="3"/>
+        <v>2.8000000000000012</v>
+      </c>
+      <c r="AN55" s="6"/>
+    </row>
+    <row r="56" spans="1:40">
+      <c r="A56" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM56" s="5">
+        <f t="shared" si="3"/>
+        <v>2.9000000000000012</v>
+      </c>
+      <c r="AN56" s="6"/>
+    </row>
+    <row r="57" spans="1:40">
+      <c r="AM57" s="5">
+        <f t="shared" si="3"/>
+        <v>3.0000000000000013</v>
+      </c>
+      <c r="AN57" s="6"/>
+    </row>
+    <row r="59" spans="1:40">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" t="s">
+        <v>14</v>
+      </c>
+      <c r="K59" t="s">
+        <v>17</v>
+      </c>
+      <c r="L59" t="s">
+        <v>18</v>
+      </c>
+      <c r="P59" t="s">
+        <v>19</v>
+      </c>
+      <c r="U59" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:40" ht="30">
+      <c r="A60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI60" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:40">
+      <c r="A61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="3">
+        <v>10.35</v>
+      </c>
+      <c r="C61" s="3">
+        <v>4.91</v>
+      </c>
+      <c r="D61" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="3">
+        <v>10.35</v>
+      </c>
+      <c r="H61" s="3">
+        <v>4.91</v>
+      </c>
+      <c r="I61" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L61" s="3">
+        <v>10.35</v>
+      </c>
+      <c r="M61" s="3">
+        <v>4.91</v>
+      </c>
+      <c r="N61" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>10.35</v>
+      </c>
+      <c r="R61" s="3">
+        <v>4.91</v>
+      </c>
+      <c r="S61" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="U61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V61" s="3">
+        <v>10.35</v>
+      </c>
+      <c r="W61" s="3">
+        <v>4.91</v>
+      </c>
+      <c r="X61" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="Z61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>10.35</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>4.91</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="AF61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG61" s="3">
+        <v>10.35</v>
+      </c>
+      <c r="AH61" s="3">
+        <v>4.91</v>
+      </c>
+      <c r="AI61" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:40">
+      <c r="A62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="C62" s="4">
+        <v>3.47</v>
+      </c>
+      <c r="D62" s="4">
+        <v>1.52</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" s="7">
+        <v>6.92</v>
+      </c>
+      <c r="H62" s="4">
+        <v>3.56</v>
+      </c>
+      <c r="I62" s="4">
+        <v>1.72</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L62" s="6">
+        <v>7.95</v>
+      </c>
+      <c r="M62" s="6">
+        <v>3.88</v>
+      </c>
+      <c r="N62" s="6">
+        <v>1.72</v>
+      </c>
+      <c r="P62" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q62" s="6">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="R62" s="6">
+        <v>3.92</v>
+      </c>
+      <c r="S62" s="6">
+        <v>1.91</v>
+      </c>
+      <c r="U62" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V62" s="4">
+        <v>9.1</v>
+      </c>
+      <c r="W62" s="4">
+        <v>3.72</v>
+      </c>
+      <c r="X62" s="4">
+        <v>1.91</v>
+      </c>
+      <c r="Z62" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA62" s="7">
+        <v>7.22</v>
+      </c>
+      <c r="AB62" s="4">
+        <v>2.61</v>
+      </c>
+      <c r="AC62" s="4">
+        <v>1.56</v>
+      </c>
+      <c r="AF62" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG62" s="4">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AH62" s="4">
+        <v>4.08</v>
+      </c>
+      <c r="AI62" s="4">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:40">
+      <c r="A63" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="6">
+        <v>7.21</v>
+      </c>
+      <c r="C63" s="6">
+        <v>2.98</v>
+      </c>
+      <c r="D63" s="6">
+        <v>1.22</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" s="6">
+        <v>6.62</v>
+      </c>
+      <c r="H63" s="6">
+        <v>3.22</v>
+      </c>
+      <c r="I63" s="6">
+        <v>1.51</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L63" s="7">
+        <v>7.33</v>
+      </c>
+      <c r="M63" s="4">
+        <v>3.45</v>
+      </c>
+      <c r="N63" s="4">
+        <v>1.61</v>
+      </c>
+      <c r="Z63" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA63" s="7">
+        <v>6.15</v>
+      </c>
+      <c r="AB63" s="4">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="AC63" s="4">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:40">
+      <c r="F64" s="5"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="K64" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L64" s="6">
+        <v>6.92</v>
+      </c>
+      <c r="M64" s="6">
+        <v>3.31</v>
+      </c>
+      <c r="N64" s="6">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:35">
+      <c r="A65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:35">
+      <c r="A66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" s="3">
+        <v>6.95</v>
+      </c>
+      <c r="C66" s="3">
+        <v>3.23</v>
+      </c>
+      <c r="D66" s="3">
+        <v>1.72</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI66" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:35">
+      <c r="A67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="4">
+        <v>6.34</v>
+      </c>
+      <c r="C67" s="4">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="D67" s="4">
+        <v>1.32</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="3">
+        <v>6.95</v>
+      </c>
+      <c r="H67" s="3">
+        <v>3.23</v>
+      </c>
+      <c r="I67" s="3">
+        <v>1.71</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L67" s="3">
+        <v>6.95</v>
+      </c>
+      <c r="M67" s="3">
+        <v>3.23</v>
+      </c>
+      <c r="N67" s="3">
+        <v>1.71</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q67" s="3">
+        <v>6.95</v>
+      </c>
+      <c r="R67" s="3">
+        <v>3.23</v>
+      </c>
+      <c r="S67" s="3">
+        <v>1.71</v>
+      </c>
+      <c r="U67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V67" s="3">
+        <v>6.95</v>
+      </c>
+      <c r="W67" s="3">
+        <v>3.23</v>
+      </c>
+      <c r="X67" s="3">
+        <v>1.71</v>
+      </c>
+      <c r="Z67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA67" s="3">
+        <v>6.95</v>
+      </c>
+      <c r="AB67" s="3">
+        <v>3.23</v>
+      </c>
+      <c r="AC67" s="3">
+        <v>1.71</v>
+      </c>
+      <c r="AF67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG67" s="3">
+        <v>6.95</v>
+      </c>
+      <c r="AH67" s="3">
+        <v>3.23</v>
+      </c>
+      <c r="AI67" s="3">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35">
+      <c r="A68" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="6">
+        <v>5.98</v>
+      </c>
+      <c r="C68" s="6">
+        <v>2.21</v>
+      </c>
+      <c r="D68" s="6">
+        <v>1.21</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" s="4">
+        <v>5.92</v>
+      </c>
+      <c r="H68" s="4">
+        <v>2.72</v>
+      </c>
+      <c r="I68" s="4">
+        <v>1.33</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L68" s="4">
+        <v>6.42</v>
+      </c>
+      <c r="M68" s="4">
+        <v>3.11</v>
+      </c>
+      <c r="N68" s="4">
+        <v>1.52</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q68" s="4">
+        <v>6.71</v>
+      </c>
+      <c r="R68" s="4">
+        <v>3.02</v>
+      </c>
+      <c r="S68" s="4">
+        <v>1.65</v>
+      </c>
+      <c r="U68" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V68" s="4">
+        <v>6.12</v>
+      </c>
+      <c r="W68" s="4">
+        <v>3.06</v>
+      </c>
+      <c r="X68" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="Z68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA68" s="4">
+        <v>4.72</v>
+      </c>
+      <c r="AB68" s="4">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="AC68" s="4">
+        <v>1.52</v>
+      </c>
+      <c r="AF68" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG68" s="4">
+        <v>6.31</v>
+      </c>
+      <c r="AH68" s="4">
+        <v>3.11</v>
+      </c>
+      <c r="AI68" s="4">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35">
+      <c r="F69" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" s="6">
+        <v>5.71</v>
+      </c>
+      <c r="H69" s="6">
+        <v>2.65</v>
+      </c>
+      <c r="I69" s="6">
+        <v>1.21</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L69" s="6">
+        <v>6.21</v>
+      </c>
+      <c r="M69" s="6">
+        <v>3.03</v>
+      </c>
+      <c r="N69" s="6">
+        <v>1.51</v>
+      </c>
+      <c r="Z69" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA69" s="4">
+        <v>4.34</v>
+      </c>
+      <c r="AB69" s="4">
+        <v>1.71</v>
+      </c>
+      <c r="AC69" s="4">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:35">
+      <c r="F70" s="5"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="K70" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L70" s="6">
+        <v>6.11</v>
+      </c>
+      <c r="M70" s="6">
+        <v>2.91</v>
+      </c>
+      <c r="N70" s="6">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:35">
+      <c r="F72" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/figures-bharath/ResultsReport.xlsx
+++ b/figures-bharath/ResultsReport.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="38">
   <si>
     <t>Camera dataset</t>
   </si>
@@ -128,6 +128,12 @@
   <si>
     <t>INIT</t>
   </si>
+  <si>
+    <t>finalMix-opt</t>
+  </si>
+  <si>
+    <t>finalMix-noisy</t>
+  </si>
 </sst>
 </file>
 
@@ -196,8 +202,130 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="191">
+  <cellStyleXfs count="313">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -409,7 +537,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="191">
+  <cellStyles count="313">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -505,6 +633,67 @@
     <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -600,6 +789,67 @@
     <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -688,7 +938,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SIM</c:v>
+                  <c:v>INIT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -718,13 +968,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5.12</c:v>
+                  <c:v>6.31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.24</c:v>
+                  <c:v>3.11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.52</c:v>
+                  <c:v>1.64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -739,7 +989,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SIM+ADDPREF</c:v>
+                  <c:v>ADD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -769,13 +1019,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.34</c:v>
+                  <c:v>6.12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.71</c:v>
+                  <c:v>3.06</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.42</c:v>
+                  <c:v>1.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HIST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -873,7 +1174,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000"/>
+            <a:defRPr sz="2500"/>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -1278,10 +1579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN72"/>
+  <dimension ref="A1:AN88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R33" workbookViewId="0">
-      <selection activeCell="AH66" sqref="AH66"/>
+    <sheetView tabSelected="1" topLeftCell="B36" workbookViewId="0">
+      <selection activeCell="L71" sqref="L71:N71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1326,16 +1627,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B3" s="4">
-        <v>5.12</v>
+        <v>6.31</v>
       </c>
       <c r="C3" s="4">
-        <v>2.2400000000000002</v>
+        <v>3.11</v>
       </c>
       <c r="D3" s="4">
-        <v>1.52</v>
+        <v>1.64</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -1343,30 +1644,30 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B4" s="4">
-        <v>4.34</v>
+        <v>6.12</v>
       </c>
       <c r="C4" s="4">
-        <v>1.71</v>
+        <v>3.06</v>
       </c>
       <c r="D4" s="4">
-        <v>1.42</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="6">
-        <v>6.11</v>
-      </c>
-      <c r="C5" s="6">
-        <v>2.91</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1.31</v>
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4">
+        <v>6.01</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3.02</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.65</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1416,6 +1717,151 @@
         <v>1.88</v>
       </c>
     </row>
+    <row r="21" spans="24:27">
+      <c r="X21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="24:27" ht="30">
+      <c r="X22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="24:27">
+      <c r="X23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>4.08</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="24:27">
+      <c r="X24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y24" s="4">
+        <v>8.81</v>
+      </c>
+      <c r="Z24" s="4">
+        <v>3.71</v>
+      </c>
+      <c r="AA24" s="4">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="25" spans="24:27">
+      <c r="X25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>3.68</v>
+      </c>
+      <c r="AA25" s="4">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="26" spans="24:27">
+      <c r="X26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y26" s="6">
+        <v>8.51</v>
+      </c>
+      <c r="Z26" s="6">
+        <v>3.51</v>
+      </c>
+      <c r="AA26" s="6">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="28" spans="24:27">
+      <c r="X28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA28" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="24:27">
+      <c r="X29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>6.62</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="30" spans="24:27">
+      <c r="X30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y30" s="4">
+        <v>6.12</v>
+      </c>
+      <c r="Z30" s="4">
+        <v>2.91</v>
+      </c>
+      <c r="AA30" s="4">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="31" spans="24:27">
+      <c r="X31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y31" s="4">
+        <v>6.02</v>
+      </c>
+      <c r="Z31" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="AA31" s="4">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="32" spans="24:27">
+      <c r="X32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y32" s="4">
+        <v>6.41</v>
+      </c>
+      <c r="Z32" s="4">
+        <v>2.96</v>
+      </c>
+      <c r="AA32" s="4">
+        <v>1.66</v>
+      </c>
+    </row>
     <row r="36" spans="1:40">
       <c r="A36" t="s">
         <v>9</v>
@@ -1784,37 +2230,37 @@
     </row>
     <row r="41" spans="1:40">
       <c r="B41">
-        <f>((B38-B39)/B38)*100</f>
-        <v>15.092290988056464</v>
+        <f>((B38-B40)/B38)*100</f>
+        <v>25.95005428881651</v>
       </c>
       <c r="C41">
-        <f t="shared" ref="C41:D41" si="0">((C38-C39)/C38)*100</f>
-        <v>23.52941176470588</v>
+        <f t="shared" ref="C41:D41" si="0">((C38-C40)/C38)*100</f>
+        <v>26.225490196078439</v>
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
-        <v>29.353233830845767</v>
+        <v>31.343283582089548</v>
       </c>
       <c r="E41">
         <f>AVERAGE(B41:D41)</f>
-        <v>22.658312194536038</v>
+        <v>27.839609355661498</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41">
-        <f>((G38-G40)/G38)*100</f>
-        <v>35.72204125950055</v>
+        <f>((G38-G39)/G38)*100</f>
+        <v>30.293159609120529</v>
       </c>
       <c r="H41">
-        <f t="shared" ref="H41:I41" si="1">((H38-H40)/H38)*100</f>
-        <v>33.333333333333329</v>
+        <f t="shared" ref="H41:I41" si="1">((H38-H39)/H38)*100</f>
+        <v>31.372549019607849</v>
       </c>
       <c r="I41">
         <f t="shared" si="1"/>
-        <v>32.338308457711427</v>
+        <v>31.840796019900488</v>
       </c>
       <c r="J41">
         <f>AVERAGE(G41:I41)</f>
-        <v>33.797894350181771</v>
+        <v>31.168834882876286</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>25</v>
@@ -1829,20 +2275,20 @@
         <v>1.42</v>
       </c>
       <c r="AA41">
-        <f>((AA38-AA40)/AA38)*100</f>
-        <v>38.979370249728561</v>
+        <f>((AA38-AA39)/AA38)*100</f>
+        <v>30.184581976112927</v>
       </c>
       <c r="AB41">
-        <f t="shared" ref="AB41:AC41" si="2">((AB38-AB40)/AB38)*100</f>
-        <v>44.117647058823536</v>
+        <f t="shared" ref="AB41:AC41" si="2">((AB38-AB39)/AB38)*100</f>
+        <v>38.480392156862756</v>
       </c>
       <c r="AC41">
         <f t="shared" si="2"/>
-        <v>37.810945273631837</v>
+        <v>29.353233830845767</v>
       </c>
       <c r="AD41">
         <f>AVERAGE(AA41:AC41)</f>
-        <v>40.302654194061311</v>
+        <v>32.672735987940484</v>
       </c>
       <c r="AM41" s="5">
         <v>1.4</v>
@@ -1862,6 +2308,22 @@
       <c r="D42" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="L42">
+        <f>((L38-L40)/L38)*100</f>
+        <v>23.127035830618901</v>
+      </c>
+      <c r="M42">
+        <f t="shared" ref="M42:N42" si="3">((M38-M40)/M38)*100</f>
+        <v>18.627450980392162</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="3"/>
+        <v>24.875621890547254</v>
+      </c>
+      <c r="O42">
+        <f>AVERAGE(L42:N42)</f>
+        <v>22.210036233852772</v>
+      </c>
       <c r="AM42" s="5">
         <v>1.5</v>
       </c>
@@ -2134,12 +2596,28 @@
         <v>1.7</v>
       </c>
       <c r="AM45" s="5">
-        <f t="shared" ref="AM45:AM57" si="3">AM44+0.1</f>
+        <f t="shared" ref="AM45:AM57" si="4">AM44+0.1</f>
         <v>1.8000000000000003</v>
       </c>
       <c r="AN45" s="6"/>
     </row>
     <row r="46" spans="1:40">
+      <c r="B46">
+        <f>((B43-B45)/B43)*100</f>
+        <v>11.933534743202417</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ref="C46" si="5">((C43-C45)/C43)*100</f>
+        <v>9.3548387096774199</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ref="D46" si="6">((D43-D45)/D43)*100</f>
+        <v>12.716763005780345</v>
+      </c>
+      <c r="E46">
+        <f>AVERAGE(B46:D46)</f>
+        <v>11.335045486220061</v>
+      </c>
       <c r="F46" s="5" t="s">
         <v>14</v>
       </c>
@@ -2177,16 +2655,29 @@
         <v>1.31</v>
       </c>
       <c r="AM46" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9000000000000004</v>
       </c>
       <c r="AN46" s="6"/>
     </row>
     <row r="47" spans="1:40">
       <c r="F47" s="5"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
+      <c r="G47">
+        <f>((G44-G46)/G44)*100</f>
+        <v>15.105740181268882</v>
+      </c>
+      <c r="H47">
+        <f t="shared" ref="H47:I47" si="7">((H44-H46)/H44)*100</f>
+        <v>6.4516129032258114</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="7"/>
+        <v>6.9364161849710921</v>
+      </c>
+      <c r="J47">
+        <f>AVERAGE(G47:I47)</f>
+        <v>9.4979230898219296</v>
+      </c>
       <c r="K47" s="5" t="s">
         <v>25</v>
       </c>
@@ -2199,8 +2690,24 @@
       <c r="N47" s="6">
         <v>1.31</v>
       </c>
+      <c r="AA47">
+        <f>((AA44-AA45)/AA44)*100</f>
+        <v>30.513595166163149</v>
+      </c>
+      <c r="AB47">
+        <f t="shared" ref="AB47:AC47" si="8">((AB44-AB45)/AB44)*100</f>
+        <v>35.483870967741936</v>
+      </c>
+      <c r="AC47">
+        <f t="shared" si="8"/>
+        <v>23.699421965317917</v>
+      </c>
+      <c r="AD47">
+        <f>AVERAGE(AA47:AC47)</f>
+        <v>29.898962699741002</v>
+      </c>
       <c r="AM47" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0000000000000004</v>
       </c>
       <c r="AN47" s="6">
@@ -2208,8 +2715,24 @@
       </c>
     </row>
     <row r="48" spans="1:40">
+      <c r="L48">
+        <f>((L44-L46)/L44)*100</f>
+        <v>3.0211480362537788</v>
+      </c>
+      <c r="M48">
+        <f t="shared" ref="M48:N48" si="9">((M44-M46)/M44)*100</f>
+        <v>3.2258064516129057</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="9"/>
+        <v>12.716763005780345</v>
+      </c>
+      <c r="O48">
+        <f>AVERAGE(L48:N48)</f>
+        <v>6.3212391645490102</v>
+      </c>
       <c r="AM48" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.1000000000000005</v>
       </c>
       <c r="AN48" s="6"/>
@@ -2225,7 +2748,7 @@
         <v>27</v>
       </c>
       <c r="AM49" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.2000000000000006</v>
       </c>
       <c r="AN49" s="6"/>
@@ -2235,7 +2758,7 @@
         <v>16</v>
       </c>
       <c r="AM50" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.3000000000000007</v>
       </c>
       <c r="AN50" s="6"/>
@@ -2248,35 +2771,35 @@
         <v>33</v>
       </c>
       <c r="AM51" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.4000000000000008</v>
       </c>
       <c r="AN51" s="6"/>
     </row>
     <row r="52" spans="1:40">
       <c r="AM52" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5000000000000009</v>
       </c>
       <c r="AN52" s="6"/>
     </row>
     <row r="53" spans="1:40">
       <c r="AM53" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.600000000000001</v>
       </c>
       <c r="AN53" s="6"/>
     </row>
     <row r="54" spans="1:40">
       <c r="AM54" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.7000000000000011</v>
       </c>
       <c r="AN54" s="6"/>
     </row>
     <row r="55" spans="1:40">
       <c r="AM55" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.8000000000000012</v>
       </c>
       <c r="AN55" s="6"/>
@@ -2286,14 +2809,14 @@
         <v>28</v>
       </c>
       <c r="AM56" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.9000000000000012</v>
       </c>
       <c r="AN56" s="6"/>
     </row>
     <row r="57" spans="1:40">
       <c r="AM57" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.0000000000000013</v>
       </c>
       <c r="AN57" s="6"/>
@@ -2327,7 +2850,7 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="1:40" ht="30">
@@ -2576,7 +3099,7 @@
         <v>1.56</v>
       </c>
       <c r="AF62" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="AG62" s="4">
         <v>9.3000000000000007</v>
@@ -2639,10 +3162,39 @@
       </c>
     </row>
     <row r="64" spans="1:40">
+      <c r="B64">
+        <f>((B61-B62)/B61)*100</f>
+        <v>21.739130434782609</v>
+      </c>
+      <c r="C64">
+        <f t="shared" ref="C64:D64" si="10">((C61-C62)/C61)*100</f>
+        <v>29.327902240325866</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="10"/>
+        <v>37.448559670781897</v>
+      </c>
+      <c r="E64">
+        <f>AVERAGE(B64:D64)</f>
+        <v>29.505197448630128</v>
+      </c>
       <c r="F64" s="5"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
+      <c r="G64">
+        <f>((G61-G63)/G61)*100</f>
+        <v>36.038647342995169</v>
+      </c>
+      <c r="H64">
+        <f t="shared" ref="H64" si="11">((H61-H63)/H61)*100</f>
+        <v>34.419551934826877</v>
+      </c>
+      <c r="I64">
+        <f t="shared" ref="I64" si="12">((I61-I63)/I61)*100</f>
+        <v>37.860082304526756</v>
+      </c>
+      <c r="J64">
+        <f>AVERAGE(G64:I64)</f>
+        <v>36.106093860782934</v>
+      </c>
       <c r="K64" s="5" t="s">
         <v>25</v>
       </c>
@@ -2654,6 +3206,22 @@
       </c>
       <c r="N64" s="6">
         <v>1.51</v>
+      </c>
+      <c r="AA64">
+        <f>((AA61-AA62)/AA61)*100</f>
+        <v>30.241545893719806</v>
+      </c>
+      <c r="AB64">
+        <f t="shared" ref="AB64:AC64" si="13">((AB61-AB62)/AB61)*100</f>
+        <v>46.843177189409374</v>
+      </c>
+      <c r="AC64">
+        <f t="shared" si="13"/>
+        <v>35.802469135802475</v>
+      </c>
+      <c r="AD64">
+        <f>AVERAGE(AA64:AC64)</f>
+        <v>37.629064072977222</v>
       </c>
     </row>
     <row r="65" spans="1:35">
@@ -2669,6 +3237,22 @@
       <c r="D65" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="L65">
+        <f>((L61-L63)/L61)*100</f>
+        <v>29.178743961352655</v>
+      </c>
+      <c r="M65">
+        <f t="shared" ref="M65:N65" si="14">((M61-M63)/M61)*100</f>
+        <v>29.735234215885946</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="14"/>
+        <v>33.744855967078195</v>
+      </c>
+      <c r="O65">
+        <f>AVERAGE(L65:N65)</f>
+        <v>30.886278048105599</v>
+      </c>
     </row>
     <row r="66" spans="1:35">
       <c r="A66" s="2" t="s">
@@ -2916,7 +3500,7 @@
         <v>1.52</v>
       </c>
       <c r="AF68" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="AG68" s="4">
         <v>6.31</v>
@@ -2929,6 +3513,22 @@
       </c>
     </row>
     <row r="69" spans="1:35">
+      <c r="B69">
+        <f>((B66-B68)/B66)*100</f>
+        <v>13.956834532374096</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ref="C69:D69" si="15">((C66-C68)/C66)*100</f>
+        <v>31.578947368421051</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="15"/>
+        <v>29.651162790697676</v>
+      </c>
+      <c r="E69">
+        <f>AVERAGE(B69:D69)</f>
+        <v>25.062314897164271</v>
+      </c>
       <c r="F69" s="5" t="s">
         <v>14</v>
       </c>
@@ -2968,9 +3568,22 @@
     </row>
     <row r="70" spans="1:35">
       <c r="F70" s="5"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
+      <c r="G70">
+        <f>((G67-G69)/G67)*100</f>
+        <v>17.841726618705039</v>
+      </c>
+      <c r="H70">
+        <f t="shared" ref="H70" si="16">((H67-H69)/H67)*100</f>
+        <v>17.956656346749227</v>
+      </c>
+      <c r="I70">
+        <f t="shared" ref="I70" si="17">((I67-I69)/I67)*100</f>
+        <v>29.239766081871345</v>
+      </c>
+      <c r="J70">
+        <f>AVERAGE(G70:I70)</f>
+        <v>21.679383015775205</v>
+      </c>
       <c r="K70" s="5" t="s">
         <v>25</v>
       </c>
@@ -2982,11 +3595,190 @@
       </c>
       <c r="N70" s="6">
         <v>1.31</v>
+      </c>
+      <c r="AA70">
+        <f>((AA67-AA68)/AA67)*100</f>
+        <v>32.086330935251809</v>
+      </c>
+      <c r="AB70">
+        <f t="shared" ref="AB70:AC70" si="18">((AB67-AB68)/AB67)*100</f>
+        <v>30.650154798761601</v>
+      </c>
+      <c r="AC70">
+        <f t="shared" si="18"/>
+        <v>11.111111111111107</v>
+      </c>
+      <c r="AD70">
+        <f>AVERAGE(AA70:AC70)</f>
+        <v>24.615865615041503</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35">
+      <c r="L71">
+        <f>((L67-L69)/L67)*100</f>
+        <v>10.647482014388492</v>
+      </c>
+      <c r="M71">
+        <f t="shared" ref="M71:N71" si="19">((M67-M69)/M67)*100</f>
+        <v>6.1919504643962906</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="19"/>
+        <v>11.695906432748536</v>
+      </c>
+      <c r="O71">
+        <f>AVERAGE(L71:N71)</f>
+        <v>9.5117796371777725</v>
       </c>
     </row>
     <row r="72" spans="1:35">
       <c r="F72" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:35">
+      <c r="W77" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:35" ht="30">
+      <c r="W78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y78" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z78" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:35">
+      <c r="W79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X79" s="3">
+        <v>10.35</v>
+      </c>
+      <c r="Y79" s="3">
+        <v>4.91</v>
+      </c>
+      <c r="Z79" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:35">
+      <c r="W80" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="X80" s="4">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="Y80" s="4">
+        <v>4.08</v>
+      </c>
+      <c r="Z80" s="4">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="81" spans="23:26">
+      <c r="W81" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X81" s="4">
+        <v>9.1</v>
+      </c>
+      <c r="Y81" s="4">
+        <v>3.72</v>
+      </c>
+      <c r="Z81" s="4">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="82" spans="23:26">
+      <c r="W82" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X82" s="6">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="Y82" s="6">
+        <v>3.92</v>
+      </c>
+      <c r="Z82" s="6">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="84" spans="23:26">
+      <c r="W84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y84" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z84" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="23:26">
+      <c r="W85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X85" s="3">
+        <v>6.95</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>3.23</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="86" spans="23:26">
+      <c r="W86" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="X86" s="4">
+        <v>6.31</v>
+      </c>
+      <c r="Y86" s="4">
+        <v>3.11</v>
+      </c>
+      <c r="Z86" s="4">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="87" spans="23:26">
+      <c r="W87" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X87" s="4">
+        <v>6.12</v>
+      </c>
+      <c r="Y87" s="4">
+        <v>3.06</v>
+      </c>
+      <c r="Z87" s="4">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="88" spans="23:26">
+      <c r="W88" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X88" s="4">
+        <v>6.01</v>
+      </c>
+      <c r="Y88" s="4">
+        <v>3.02</v>
+      </c>
+      <c r="Z88" s="4">
+        <v>1.65</v>
       </c>
     </row>
   </sheetData>

--- a/figures-bharath/ResultsReport.xlsx
+++ b/figures-bharath/ResultsReport.xlsx
@@ -202,8 +202,50 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="313">
+  <cellStyleXfs count="355">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -537,7 +579,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="313">
+  <cellStyles count="355">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -694,6 +736,27 @@
     <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -850,6 +913,27 @@
     <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -864,10 +948,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="101"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="1"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -938,7 +1022,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>INIT</c:v>
+                  <c:v>SELWEIGHT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -968,13 +1052,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.31</c:v>
+                  <c:v>6.42</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.64</c:v>
+                  <c:v>1.52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -989,7 +1073,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ADD</c:v>
+                  <c:v>SELNOMINAL</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1019,13 +1103,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.12</c:v>
+                  <c:v>6.21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.06</c:v>
+                  <c:v>3.03</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7</c:v>
+                  <c:v>1.51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1040,7 +1124,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>HIST</c:v>
+                  <c:v>SELNOM+SELWT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1070,13 +1154,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.01</c:v>
+                  <c:v>6.11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.02</c:v>
+                  <c:v>2.91</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.65</c:v>
+                  <c:v>1.31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1091,11 +1175,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="589036744"/>
-        <c:axId val="589043320"/>
+        <c:axId val="588152760"/>
+        <c:axId val="588159672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="589036744"/>
+        <c:axId val="588152760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1108,10 +1192,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="3000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="3000"/>
                   <a:t>Query Type</a:t>
                 </a:r>
               </a:p>
@@ -1123,7 +1207,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="589043320"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="3000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="588159672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1131,7 +1225,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="589043320"/>
+        <c:axId val="588159672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1144,10 +1238,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="3000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="3000"/>
                   <a:t>Cycles</a:t>
                 </a:r>
               </a:p>
@@ -1160,21 +1254,40 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="589036744"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="3000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="588152760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.189648376467676"/>
+          <c:y val="0.0159680613626194"/>
+          <c:w val="0.738581439599028"/>
+          <c:h val="0.124414458576633"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2500"/>
+            <a:defRPr sz="2000"/>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -1184,32 +1297,12 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:prstDash val="solid"/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="3000">
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
+        <a:defRPr sz="2500"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1581,8 +1674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B36" workbookViewId="0">
-      <selection activeCell="L71" sqref="L71:N71"/>
+    <sheetView tabSelected="1" topLeftCell="T22" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1627,47 +1720,47 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B3" s="4">
-        <v>6.31</v>
+        <v>6.42</v>
       </c>
       <c r="C3" s="4">
         <v>3.11</v>
       </c>
       <c r="D3" s="4">
-        <v>1.64</v>
+        <v>1.52</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="4">
-        <v>6.12</v>
-      </c>
-      <c r="C4" s="4">
-        <v>3.06</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1.7</v>
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="6">
+        <v>6.21</v>
+      </c>
+      <c r="C4" s="6">
+        <v>3.03</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1.51</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="4">
-        <v>6.01</v>
-      </c>
-      <c r="C5" s="4">
-        <v>3.02</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1.65</v>
+      <c r="A5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="6">
+        <v>6.11</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2.91</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1.31</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2274,22 +2367,70 @@
       <c r="N41" s="6">
         <v>1.42</v>
       </c>
+      <c r="Q41">
+        <f>((Q38-Q39)/Q38)*100</f>
+        <v>7.6004343105320409</v>
+      </c>
+      <c r="R41">
+        <f t="shared" ref="R41:S41" si="2">((R38-R39)/R38)*100</f>
+        <v>13.970588235294123</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="2"/>
+        <v>9.4527363184079469</v>
+      </c>
+      <c r="T41">
+        <f>AVERAGE(Q41:S41)</f>
+        <v>10.341252954744704</v>
+      </c>
+      <c r="V41">
+        <f>((V38-V39)/V38)*100</f>
+        <v>5.3203040173724228</v>
+      </c>
+      <c r="W41">
+        <f t="shared" ref="W41:X41" si="3">((W38-W39)/W38)*100</f>
+        <v>9.8039215686274481</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="3"/>
+        <v>6.4676616915422844</v>
+      </c>
+      <c r="Y41">
+        <f>AVERAGE(V41:X41)</f>
+        <v>7.1972957591807187</v>
+      </c>
       <c r="AA41">
         <f>((AA38-AA39)/AA38)*100</f>
         <v>30.184581976112927</v>
       </c>
       <c r="AB41">
-        <f t="shared" ref="AB41:AC41" si="2">((AB38-AB39)/AB38)*100</f>
+        <f t="shared" ref="AB41:AC41" si="4">((AB38-AB39)/AB38)*100</f>
         <v>38.480392156862756</v>
       </c>
       <c r="AC41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>29.353233830845767</v>
       </c>
       <c r="AD41">
         <f>AVERAGE(AA41:AC41)</f>
         <v>32.672735987940484</v>
       </c>
+      <c r="AG41">
+        <f>((AG38-AG39)/AG38)*100</f>
+        <v>4.3431053203040211</v>
+      </c>
+      <c r="AH41">
+        <f t="shared" ref="AH41:AI41" si="5">((AH38-AH39)/AH38)*100</f>
+        <v>9.0686274509803955</v>
+      </c>
+      <c r="AI41">
+        <f t="shared" si="5"/>
+        <v>4.975124378109447</v>
+      </c>
+      <c r="AJ41">
+        <f>AVERAGE(AG41:AI41)</f>
+        <v>6.1289523831312875</v>
+      </c>
       <c r="AM41" s="5">
         <v>1.4</v>
       </c>
@@ -2309,20 +2450,20 @@
         <v>3</v>
       </c>
       <c r="L42">
-        <f>((L38-L40)/L38)*100</f>
-        <v>23.127035830618901</v>
+        <f>((L38-L41)/L38)*100</f>
+        <v>26.384364820846912</v>
       </c>
       <c r="M42">
-        <f t="shared" ref="M42:N42" si="3">((M38-M40)/M38)*100</f>
-        <v>18.627450980392162</v>
+        <f t="shared" ref="M42:N42" si="6">((M38-M41)/M38)*100</f>
+        <v>21.078431372549016</v>
       </c>
       <c r="N42">
-        <f t="shared" si="3"/>
-        <v>24.875621890547254</v>
+        <f t="shared" si="6"/>
+        <v>29.353233830845767</v>
       </c>
       <c r="O42">
         <f>AVERAGE(L42:N42)</f>
-        <v>22.210036233852772</v>
+        <v>25.605343341413899</v>
       </c>
       <c r="AM42" s="5">
         <v>1.5</v>
@@ -2596,7 +2737,7 @@
         <v>1.7</v>
       </c>
       <c r="AM45" s="5">
-        <f t="shared" ref="AM45:AM57" si="4">AM44+0.1</f>
+        <f t="shared" ref="AM45:AM57" si="7">AM44+0.1</f>
         <v>1.8000000000000003</v>
       </c>
       <c r="AN45" s="6"/>
@@ -2607,11 +2748,11 @@
         <v>11.933534743202417</v>
       </c>
       <c r="C46">
-        <f t="shared" ref="C46" si="5">((C43-C45)/C43)*100</f>
+        <f t="shared" ref="C46" si="8">((C43-C45)/C43)*100</f>
         <v>9.3548387096774199</v>
       </c>
       <c r="D46">
-        <f t="shared" ref="D46" si="6">((D43-D45)/D43)*100</f>
+        <f t="shared" ref="D46" si="9">((D43-D45)/D43)*100</f>
         <v>12.716763005780345</v>
       </c>
       <c r="E46">
@@ -2655,7 +2796,7 @@
         <v>1.31</v>
       </c>
       <c r="AM46" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.9000000000000004</v>
       </c>
       <c r="AN46" s="6"/>
@@ -2667,11 +2808,11 @@
         <v>15.105740181268882</v>
       </c>
       <c r="H47">
-        <f t="shared" ref="H47:I47" si="7">((H44-H46)/H44)*100</f>
+        <f t="shared" ref="H47:I47" si="10">((H44-H46)/H44)*100</f>
         <v>6.4516129032258114</v>
       </c>
       <c r="I47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6.9364161849710921</v>
       </c>
       <c r="J47">
@@ -2690,24 +2831,72 @@
       <c r="N47" s="6">
         <v>1.31</v>
       </c>
+      <c r="Q47">
+        <f>((Q44-Q45)/Q44)*100</f>
+        <v>3.1722054380664644</v>
+      </c>
+      <c r="R47">
+        <f t="shared" ref="R47:S47" si="11">((R44-R45)/R44)*100</f>
+        <v>4.5161290322580685</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="11"/>
+        <v>4.046242774566478</v>
+      </c>
+      <c r="T47">
+        <f>AVERAGE(Q47:S47)</f>
+        <v>3.9115257482970036</v>
+      </c>
+      <c r="V47">
+        <f>((V44-V45)/V44)*100</f>
+        <v>9.0634441087613364</v>
+      </c>
+      <c r="W47">
+        <f t="shared" ref="W47:X47" si="12">((W44-W45)/W44)*100</f>
+        <v>6.4516129032258114</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="12"/>
+        <v>1.7341040462427761</v>
+      </c>
+      <c r="Y47">
+        <f>AVERAGE(V47:X47)</f>
+        <v>5.7497203527433074</v>
+      </c>
       <c r="AA47">
         <f>((AA44-AA45)/AA44)*100</f>
         <v>30.513595166163149</v>
       </c>
       <c r="AB47">
-        <f t="shared" ref="AB47:AC47" si="8">((AB44-AB45)/AB44)*100</f>
+        <f t="shared" ref="AB47:AC47" si="13">((AB44-AB45)/AB44)*100</f>
         <v>35.483870967741936</v>
       </c>
       <c r="AC47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>23.699421965317917</v>
       </c>
       <c r="AD47">
         <f>AVERAGE(AA47:AC47)</f>
         <v>29.898962699741002</v>
       </c>
+      <c r="AG47">
+        <f>((AG44-AG45)/AG44)*100</f>
+        <v>7.5528700906344408</v>
+      </c>
+      <c r="AH47">
+        <f t="shared" ref="AH47:AI47" si="14">((AH44-AH45)/AH44)*100</f>
+        <v>6.1290322580645142</v>
+      </c>
+      <c r="AI47">
+        <f t="shared" si="14"/>
+        <v>1.7341040462427761</v>
+      </c>
+      <c r="AJ47">
+        <f>AVERAGE(AG47:AI47)</f>
+        <v>5.138668798313911</v>
+      </c>
       <c r="AM47" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000004</v>
       </c>
       <c r="AN47" s="6">
@@ -2716,23 +2905,23 @@
     </row>
     <row r="48" spans="1:40">
       <c r="L48">
-        <f>((L44-L46)/L44)*100</f>
-        <v>3.0211480362537788</v>
+        <f>((L44-L47)/L44)*100</f>
+        <v>8.1570996978851973</v>
       </c>
       <c r="M48">
-        <f t="shared" ref="M48:N48" si="9">((M44-M46)/M44)*100</f>
-        <v>3.2258064516129057</v>
+        <f t="shared" ref="M48" si="15">((M44-M47)/M44)*100</f>
+        <v>7.0967741935483923</v>
       </c>
       <c r="N48">
-        <f t="shared" si="9"/>
-        <v>12.716763005780345</v>
+        <f t="shared" ref="N48" si="16">((N44-N47)/N44)*100</f>
+        <v>24.277456647398839</v>
       </c>
       <c r="O48">
         <f>AVERAGE(L48:N48)</f>
-        <v>6.3212391645490102</v>
+        <v>13.177110179610809</v>
       </c>
       <c r="AM48" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.1000000000000005</v>
       </c>
       <c r="AN48" s="6"/>
@@ -2748,7 +2937,7 @@
         <v>27</v>
       </c>
       <c r="AM49" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.2000000000000006</v>
       </c>
       <c r="AN49" s="6"/>
@@ -2758,7 +2947,7 @@
         <v>16</v>
       </c>
       <c r="AM50" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.3000000000000007</v>
       </c>
       <c r="AN50" s="6"/>
@@ -2771,35 +2960,35 @@
         <v>33</v>
       </c>
       <c r="AM51" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.4000000000000008</v>
       </c>
       <c r="AN51" s="6"/>
     </row>
     <row r="52" spans="1:40">
       <c r="AM52" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.5000000000000009</v>
       </c>
       <c r="AN52" s="6"/>
     </row>
     <row r="53" spans="1:40">
       <c r="AM53" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.600000000000001</v>
       </c>
       <c r="AN53" s="6"/>
     </row>
     <row r="54" spans="1:40">
       <c r="AM54" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.7000000000000011</v>
       </c>
       <c r="AN54" s="6"/>
     </row>
     <row r="55" spans="1:40">
       <c r="AM55" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.8000000000000012</v>
       </c>
       <c r="AN55" s="6"/>
@@ -2809,14 +2998,14 @@
         <v>28</v>
       </c>
       <c r="AM56" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.9000000000000012</v>
       </c>
       <c r="AN56" s="6"/>
     </row>
     <row r="57" spans="1:40">
       <c r="AM57" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.0000000000000013</v>
       </c>
       <c r="AN57" s="6"/>
@@ -3167,11 +3356,11 @@
         <v>21.739130434782609</v>
       </c>
       <c r="C64">
-        <f t="shared" ref="C64:D64" si="10">((C61-C62)/C61)*100</f>
+        <f t="shared" ref="C64:D64" si="17">((C61-C62)/C61)*100</f>
         <v>29.327902240325866</v>
       </c>
       <c r="D64">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>37.448559670781897</v>
       </c>
       <c r="E64">
@@ -3184,11 +3373,11 @@
         <v>36.038647342995169</v>
       </c>
       <c r="H64">
-        <f t="shared" ref="H64" si="11">((H61-H63)/H61)*100</f>
+        <f t="shared" ref="H64" si="18">((H61-H63)/H61)*100</f>
         <v>34.419551934826877</v>
       </c>
       <c r="I64">
-        <f t="shared" ref="I64" si="12">((I61-I63)/I61)*100</f>
+        <f t="shared" ref="I64" si="19">((I61-I63)/I61)*100</f>
         <v>37.860082304526756</v>
       </c>
       <c r="J64">
@@ -3207,24 +3396,72 @@
       <c r="N64" s="6">
         <v>1.51</v>
       </c>
+      <c r="Q64">
+        <f>((Q61-Q62)/Q61)*100</f>
+        <v>16.714975845410631</v>
+      </c>
+      <c r="R64">
+        <f t="shared" ref="R64:S64" si="20">((R61-R62)/R61)*100</f>
+        <v>20.162932790224037</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="20"/>
+        <v>21.399176954732518</v>
+      </c>
+      <c r="T64">
+        <f>AVERAGE(Q64:S64)</f>
+        <v>19.425695196789061</v>
+      </c>
+      <c r="V64">
+        <f>((V61-V62)/V61)*100</f>
+        <v>12.077294685990339</v>
+      </c>
+      <c r="W64">
+        <f t="shared" ref="W64:X64" si="21">((W61-W62)/W61)*100</f>
+        <v>24.236252545824847</v>
+      </c>
+      <c r="X64">
+        <f t="shared" si="21"/>
+        <v>21.399176954732518</v>
+      </c>
+      <c r="Y64">
+        <f>AVERAGE(V64:X64)</f>
+        <v>19.237574728849236</v>
+      </c>
       <c r="AA64">
         <f>((AA61-AA62)/AA61)*100</f>
         <v>30.241545893719806</v>
       </c>
       <c r="AB64">
-        <f t="shared" ref="AB64:AC64" si="13">((AB61-AB62)/AB61)*100</f>
+        <f t="shared" ref="AB64:AC64" si="22">((AB61-AB62)/AB61)*100</f>
         <v>46.843177189409374</v>
       </c>
       <c r="AC64">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>35.802469135802475</v>
       </c>
       <c r="AD64">
         <f>AVERAGE(AA64:AC64)</f>
         <v>37.629064072977222</v>
       </c>
-    </row>
-    <row r="65" spans="1:35">
+      <c r="AG64">
+        <f>((AG61-AG62)/AG61)*100</f>
+        <v>10.144927536231874</v>
+      </c>
+      <c r="AH64">
+        <f t="shared" ref="AH64:AI64" si="23">((AH61-AH62)/AH61)*100</f>
+        <v>16.904276985743383</v>
+      </c>
+      <c r="AI64">
+        <f t="shared" si="23"/>
+        <v>21.399176954732518</v>
+      </c>
+      <c r="AJ64">
+        <f>AVERAGE(AG64:AI64)</f>
+        <v>16.149460492235924</v>
+      </c>
+    </row>
+    <row r="65" spans="1:36">
       <c r="A65" s="1" t="s">
         <v>5</v>
       </c>
@@ -3238,23 +3475,23 @@
         <v>3</v>
       </c>
       <c r="L65">
-        <f>((L61-L63)/L61)*100</f>
-        <v>29.178743961352655</v>
+        <f>((L61-L64)/L61)*100</f>
+        <v>33.140096618357482</v>
       </c>
       <c r="M65">
-        <f t="shared" ref="M65:N65" si="14">((M61-M63)/M61)*100</f>
-        <v>29.735234215885946</v>
+        <f t="shared" ref="M65" si="24">((M61-M64)/M61)*100</f>
+        <v>32.586558044806516</v>
       </c>
       <c r="N65">
-        <f t="shared" si="14"/>
-        <v>33.744855967078195</v>
+        <f t="shared" ref="N65" si="25">((N61-N64)/N61)*100</f>
+        <v>37.860082304526756</v>
       </c>
       <c r="O65">
         <f>AVERAGE(L65:N65)</f>
-        <v>30.886278048105599</v>
-      </c>
-    </row>
-    <row r="66" spans="1:35">
+        <v>34.528912322563585</v>
+      </c>
+    </row>
+    <row r="66" spans="1:36">
       <c r="A66" s="2" t="s">
         <v>10</v>
       </c>
@@ -3340,7 +3577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:35">
+    <row r="67" spans="1:36">
       <c r="A67" s="2" t="s">
         <v>8</v>
       </c>
@@ -3426,7 +3663,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="68" spans="1:35">
+    <row r="68" spans="1:36">
       <c r="A68" s="5" t="s">
         <v>12</v>
       </c>
@@ -3512,17 +3749,17 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="69" spans="1:35">
+    <row r="69" spans="1:36">
       <c r="B69">
         <f>((B66-B68)/B66)*100</f>
         <v>13.956834532374096</v>
       </c>
       <c r="C69">
-        <f t="shared" ref="C69:D69" si="15">((C66-C68)/C66)*100</f>
+        <f t="shared" ref="C69:D69" si="26">((C66-C68)/C66)*100</f>
         <v>31.578947368421051</v>
       </c>
       <c r="D69">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>29.651162790697676</v>
       </c>
       <c r="E69">
@@ -3566,18 +3803,18 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="70" spans="1:35">
+    <row r="70" spans="1:36">
       <c r="F70" s="5"/>
       <c r="G70">
         <f>((G67-G69)/G67)*100</f>
         <v>17.841726618705039</v>
       </c>
       <c r="H70">
-        <f t="shared" ref="H70" si="16">((H67-H69)/H67)*100</f>
+        <f t="shared" ref="H70" si="27">((H67-H69)/H67)*100</f>
         <v>17.956656346749227</v>
       </c>
       <c r="I70">
-        <f t="shared" ref="I70" si="17">((I67-I69)/I67)*100</f>
+        <f t="shared" ref="I70" si="28">((I67-I69)/I67)*100</f>
         <v>29.239766081871345</v>
       </c>
       <c r="J70">
@@ -3596,52 +3833,100 @@
       <c r="N70" s="6">
         <v>1.31</v>
       </c>
+      <c r="Q70">
+        <f>((Q67-Q68)/Q67)*100</f>
+        <v>3.453237410071945</v>
+      </c>
+      <c r="R70">
+        <f t="shared" ref="R70:S70" si="29">((R67-R68)/R67)*100</f>
+        <v>6.5015479876160978</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="29"/>
+        <v>3.5087719298245648</v>
+      </c>
+      <c r="T70">
+        <f>AVERAGE(Q70:S70)</f>
+        <v>4.4878524425042023</v>
+      </c>
+      <c r="V70">
+        <f>((V67-V68)/V67)*100</f>
+        <v>11.942446043165468</v>
+      </c>
+      <c r="W70">
+        <f t="shared" ref="W70:X70" si="30">((W67-W68)/W67)*100</f>
+        <v>5.2631578947368398</v>
+      </c>
+      <c r="X70">
+        <f t="shared" si="30"/>
+        <v>0.58479532163742742</v>
+      </c>
+      <c r="Y70">
+        <f>AVERAGE(V70:X70)</f>
+        <v>5.9301330865132442</v>
+      </c>
       <c r="AA70">
         <f>((AA67-AA68)/AA67)*100</f>
         <v>32.086330935251809</v>
       </c>
       <c r="AB70">
-        <f t="shared" ref="AB70:AC70" si="18">((AB67-AB68)/AB67)*100</f>
+        <f t="shared" ref="AB70:AC70" si="31">((AB67-AB68)/AB67)*100</f>
         <v>30.650154798761601</v>
       </c>
       <c r="AC70">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>11.111111111111107</v>
       </c>
       <c r="AD70">
         <f>AVERAGE(AA70:AC70)</f>
         <v>24.615865615041503</v>
       </c>
-    </row>
-    <row r="71" spans="1:35">
+      <c r="AG70">
+        <f>((AG67-AG68)/AG67)*100</f>
+        <v>9.2086330935251883</v>
+      </c>
+      <c r="AH70">
+        <f t="shared" ref="AH70:AI70" si="32">((AH67-AH68)/AH67)*100</f>
+        <v>3.7151702786377743</v>
+      </c>
+      <c r="AI70">
+        <f t="shared" si="32"/>
+        <v>4.0935672514619919</v>
+      </c>
+      <c r="AJ70">
+        <f>AVERAGE(AG70:AI70)</f>
+        <v>5.6724568745416519</v>
+      </c>
+    </row>
+    <row r="71" spans="1:36">
       <c r="L71">
-        <f>((L67-L69)/L67)*100</f>
-        <v>10.647482014388492</v>
+        <f>((L67-L70)/L67)*100</f>
+        <v>12.086330935251796</v>
       </c>
       <c r="M71">
-        <f t="shared" ref="M71:N71" si="19">((M67-M69)/M67)*100</f>
-        <v>6.1919504643962906</v>
+        <f t="shared" ref="M71" si="33">((M67-M70)/M67)*100</f>
+        <v>9.9071207430340511</v>
       </c>
       <c r="N71">
-        <f t="shared" si="19"/>
-        <v>11.695906432748536</v>
+        <f t="shared" ref="N71" si="34">((N67-N70)/N67)*100</f>
+        <v>23.391812865497073</v>
       </c>
       <c r="O71">
         <f>AVERAGE(L71:N71)</f>
-        <v>9.5117796371777725</v>
-      </c>
-    </row>
-    <row r="72" spans="1:35">
+        <v>15.128421514594308</v>
+      </c>
+    </row>
+    <row r="72" spans="1:36">
       <c r="F72" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="1:35">
+    <row r="77" spans="1:36">
       <c r="W77" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:35" ht="30">
+    <row r="78" spans="1:36" ht="30">
       <c r="W78" s="1" t="s">
         <v>0</v>
       </c>
@@ -3655,7 +3940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:35">
+    <row r="79" spans="1:36">
       <c r="W79" s="2" t="s">
         <v>10</v>
       </c>
@@ -3669,7 +3954,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:35">
+    <row r="80" spans="1:36">
       <c r="W80" s="2" t="s">
         <v>35</v>
       </c>

--- a/figures-bharath/ResultsReport.xlsx
+++ b/figures-bharath/ResultsReport.xlsx
@@ -202,8 +202,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="355">
+  <cellStyleXfs count="361">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -579,7 +585,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="355">
+  <cellStyles count="361">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -757,6 +763,9 @@
     <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -934,6 +943,9 @@
     <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1001,13 +1013,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.95</c:v>
+                  <c:v>6.62</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.23</c:v>
+                  <c:v>3.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.71</c:v>
+                  <c:v>1.73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1052,13 +1064,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.42</c:v>
+                  <c:v>6.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.11</c:v>
+                  <c:v>2.92</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.52</c:v>
+                  <c:v>1.42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1103,10 +1115,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.21</c:v>
+                  <c:v>6.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.03</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.51</c:v>
@@ -1154,10 +1166,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.11</c:v>
+                  <c:v>5.92</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.91</c:v>
+                  <c:v>2.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.31</c:v>
@@ -1175,11 +1187,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="588152760"/>
-        <c:axId val="588159672"/>
+        <c:axId val="614990520"/>
+        <c:axId val="614997048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="588152760"/>
+        <c:axId val="614990520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1217,7 +1229,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="588159672"/>
+        <c:crossAx val="614997048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1225,7 +1237,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="588159672"/>
+        <c:axId val="614997048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1264,7 +1276,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="588152760"/>
+        <c:crossAx val="614990520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1674,7 +1686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T22" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D5"/>
     </sheetView>
   </sheetViews>
@@ -1706,13 +1718,13 @@
         <v>10</v>
       </c>
       <c r="B2" s="3">
-        <v>6.95</v>
+        <v>6.62</v>
       </c>
       <c r="C2" s="3">
-        <v>3.23</v>
+        <v>3.1</v>
       </c>
       <c r="D2" s="3">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
@@ -1723,13 +1735,13 @@
         <v>18</v>
       </c>
       <c r="B3" s="4">
-        <v>6.42</v>
+        <v>6.1</v>
       </c>
       <c r="C3" s="4">
-        <v>3.11</v>
+        <v>2.92</v>
       </c>
       <c r="D3" s="4">
-        <v>1.52</v>
+        <v>1.42</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -1740,10 +1752,10 @@
         <v>17</v>
       </c>
       <c r="B4" s="6">
-        <v>6.21</v>
+        <v>6.02</v>
       </c>
       <c r="C4" s="6">
-        <v>3.03</v>
+        <v>3</v>
       </c>
       <c r="D4" s="6">
         <v>1.51</v>
@@ -1754,10 +1766,10 @@
         <v>25</v>
       </c>
       <c r="B5" s="6">
-        <v>6.11</v>
+        <v>5.92</v>
       </c>
       <c r="C5" s="6">
-        <v>2.91</v>
+        <v>2.88</v>
       </c>
       <c r="D5" s="6">
         <v>1.31</v>
@@ -1946,10 +1958,10 @@
         <v>19</v>
       </c>
       <c r="Y32" s="4">
-        <v>6.41</v>
+        <v>5.91</v>
       </c>
       <c r="Z32" s="4">
-        <v>2.96</v>
+        <v>2.81</v>
       </c>
       <c r="AA32" s="4">
         <v>1.66</v>
@@ -2775,7 +2787,7 @@
         <v>17</v>
       </c>
       <c r="L46" s="6">
-        <v>6.42</v>
+        <v>6.02</v>
       </c>
       <c r="M46" s="6">
         <v>3</v>
@@ -2823,7 +2835,7 @@
         <v>25</v>
       </c>
       <c r="L47" s="6">
-        <v>6.08</v>
+        <v>5.92</v>
       </c>
       <c r="M47" s="6">
         <v>2.88</v>
@@ -2906,7 +2918,7 @@
     <row r="48" spans="1:40">
       <c r="L48">
         <f>((L44-L47)/L44)*100</f>
-        <v>8.1570996978851973</v>
+        <v>10.57401812688822</v>
       </c>
       <c r="M48">
         <f t="shared" ref="M48" si="15">((M44-M47)/M44)*100</f>
@@ -2918,7 +2930,7 @@
       </c>
       <c r="O48">
         <f>AVERAGE(L48:N48)</f>
-        <v>13.177110179610809</v>
+        <v>13.982749655945151</v>
       </c>
       <c r="AM48" s="5">
         <f t="shared" si="7"/>
